--- a/Documentacion_G9/PREGAME/1.ELICITACIÓN/1.6 Backlog/G9_Backlog-2Sprint1.xlsx
+++ b/Documentacion_G9/PREGAME/1.ELICITACIÓN/1.6 Backlog/G9_Backlog-2Sprint1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\MET. DES. SOFT 3594\III PARCIAL\PROYECTO\DOC ENTREGADOS\G9-Sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVIER\OneDrive\Documentos\G9_3594_MET_DES_SW_202150\Documentacion_G9\PREGAME\1.ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944EA0F1-BA03-4859-9A41-3A3D56C11646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189CABA4-D03C-42B4-9B3E-445C73FE1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="675" windowWidth="25920" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Config!$A$15:$D$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1348,58 +1358,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,37 +1376,28 @@
     <xf numFmtId="0" fontId="32" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1470,31 +1426,85 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5393,7 +5403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BFD87C-B76E-44E0-93A2-54D19A69A1F8}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -33449,7 +33459,7 @@
   </sheetPr>
   <dimension ref="A1:G998"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -34668,11 +34678,11 @@
   </sheetPr>
   <dimension ref="A1:BG1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane xSplit="7" ySplit="12" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -35055,11 +35065,11 @@
       <c r="B9" s="81"/>
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
-      <c r="E9" s="161" t="s">
+      <c r="E9" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="162"/>
-      <c r="G9" s="163"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="149"/>
       <c r="H9" s="87">
         <f>COUNTIF(H13:H1000,"&gt;0")</f>
         <v>6</v>
@@ -35237,11 +35247,11 @@
       <c r="B10" s="86"/>
       <c r="C10" s="86"/>
       <c r="D10" s="86"/>
-      <c r="E10" s="164" t="s">
+      <c r="E10" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="165"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="151"/>
       <c r="H10" s="88">
         <f>SUM(H13:H100)</f>
         <v>7</v>
@@ -35408,55 +35418,55 @@
       </c>
     </row>
     <row r="11" spans="1:55" s="98" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="169" t="s">
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="170"/>
-      <c r="Z11" s="170"/>
-      <c r="AA11" s="170"/>
-      <c r="AB11" s="170"/>
-      <c r="AC11" s="170"/>
-      <c r="AD11" s="170"/>
-      <c r="AE11" s="170"/>
-      <c r="AF11" s="170"/>
-      <c r="AG11" s="170"/>
-      <c r="AH11" s="170"/>
-      <c r="AI11" s="170"/>
-      <c r="AJ11" s="170"/>
-      <c r="AK11" s="170"/>
-      <c r="AL11" s="170"/>
-      <c r="AM11" s="170"/>
-      <c r="AN11" s="170"/>
-      <c r="AO11" s="170"/>
-      <c r="AP11" s="170"/>
-      <c r="AQ11" s="170"/>
-      <c r="AR11" s="170"/>
-      <c r="AS11" s="170"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="156"/>
+      <c r="AG11" s="156"/>
+      <c r="AH11" s="156"/>
+      <c r="AI11" s="156"/>
+      <c r="AJ11" s="156"/>
+      <c r="AK11" s="156"/>
+      <c r="AL11" s="156"/>
+      <c r="AM11" s="156"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="156"/>
+      <c r="AQ11" s="156"/>
+      <c r="AR11" s="156"/>
+      <c r="AS11" s="156"/>
       <c r="BA11" s="99" t="str">
         <f>Config!A19</f>
         <v>Modificación</v>
@@ -35474,11 +35484,11 @@
       <c r="A12" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="174"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="96" t="s">
         <v>25</v>
       </c>
@@ -35488,54 +35498,54 @@
       <c r="G12" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="172"/>
-      <c r="R12" s="172"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="172"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="172"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="172"/>
-      <c r="Z12" s="172"/>
-      <c r="AA12" s="172"/>
-      <c r="AB12" s="172"/>
-      <c r="AC12" s="172"/>
-      <c r="AD12" s="172"/>
-      <c r="AE12" s="172"/>
-      <c r="AF12" s="172"/>
-      <c r="AG12" s="172"/>
-      <c r="AH12" s="172"/>
-      <c r="AI12" s="172"/>
-      <c r="AJ12" s="172"/>
-      <c r="AK12" s="172"/>
-      <c r="AL12" s="172"/>
-      <c r="AM12" s="172"/>
-      <c r="AN12" s="172"/>
-      <c r="AO12" s="172"/>
-      <c r="AP12" s="172"/>
-      <c r="AQ12" s="172"/>
-      <c r="AR12" s="172"/>
-      <c r="AS12" s="172"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="158"/>
+      <c r="S12" s="158"/>
+      <c r="T12" s="158"/>
+      <c r="U12" s="158"/>
+      <c r="V12" s="158"/>
+      <c r="W12" s="158"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="158"/>
+      <c r="Z12" s="158"/>
+      <c r="AA12" s="158"/>
+      <c r="AB12" s="158"/>
+      <c r="AC12" s="158"/>
+      <c r="AD12" s="158"/>
+      <c r="AE12" s="158"/>
+      <c r="AF12" s="158"/>
+      <c r="AG12" s="158"/>
+      <c r="AH12" s="158"/>
+      <c r="AI12" s="158"/>
+      <c r="AJ12" s="158"/>
+      <c r="AK12" s="158"/>
+      <c r="AL12" s="158"/>
+      <c r="AM12" s="158"/>
+      <c r="AN12" s="158"/>
+      <c r="AO12" s="158"/>
+      <c r="AP12" s="158"/>
+      <c r="AQ12" s="158"/>
+      <c r="AR12" s="158"/>
+      <c r="AS12" s="158"/>
     </row>
     <row r="13" spans="1:55" s="55" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="157"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="173"/>
       <c r="E13" s="67" t="s">
         <v>10</v>
       </c>
@@ -35599,12 +35609,12 @@
       </c>
     </row>
     <row r="14" spans="1:55" s="55" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="154"/>
-      <c r="B14" s="155" t="s">
+      <c r="A14" s="170"/>
+      <c r="B14" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="157"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="67" t="s">
         <v>10</v>
       </c>
@@ -35668,12 +35678,12 @@
       </c>
     </row>
     <row r="15" spans="1:55" s="55" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A15" s="154"/>
-      <c r="B15" s="155" t="s">
+      <c r="A15" s="170"/>
+      <c r="B15" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="156"/>
-      <c r="D15" s="157"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="67" t="s">
         <v>47</v>
       </c>
@@ -35737,12 +35747,12 @@
       </c>
     </row>
     <row r="16" spans="1:55" s="55" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="154"/>
-      <c r="B16" s="155" t="s">
+      <c r="A16" s="170"/>
+      <c r="B16" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="156"/>
-      <c r="D16" s="157"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="67" t="s">
         <v>68</v>
       </c>
@@ -35794,12 +35804,12 @@
       <c r="AS16" s="62"/>
     </row>
     <row r="17" spans="1:59" s="55" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A17" s="154"/>
-      <c r="B17" s="155" t="s">
+      <c r="A17" s="170"/>
+      <c r="B17" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="156"/>
-      <c r="D17" s="157"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="67" t="s">
         <v>68</v>
       </c>
@@ -35854,11 +35864,11 @@
     </row>
     <row r="18" spans="1:59" s="55" customFormat="1" ht="12.75" customHeight="1">
       <c r="A18" s="68"/>
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="131"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="67" t="s">
         <v>47</v>
       </c>
@@ -35915,11 +35925,11 @@
     </row>
     <row r="19" spans="1:59" s="55" customFormat="1" ht="12.75" customHeight="1">
       <c r="A19" s="68"/>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="131"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="67" t="s">
         <v>11</v>
       </c>
@@ -35972,11 +35982,11 @@
     </row>
     <row r="20" spans="1:59" s="55" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="68"/>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="67" t="s">
         <v>11</v>
       </c>
@@ -36031,11 +36041,11 @@
       <c r="A21" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="67" t="s">
         <v>11</v>
       </c>
@@ -36090,11 +36100,11 @@
       <c r="A22" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="150" t="s">
+      <c r="B22" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="151"/>
-      <c r="D22" s="152"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
       <c r="E22" s="70" t="s">
         <v>48</v>
       </c>
@@ -36161,11 +36171,11 @@
       <c r="A23" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="152"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
       <c r="E23" s="70" t="s">
         <v>48</v>
       </c>
@@ -36229,14 +36239,14 @@
       <c r="AS23" s="64"/>
     </row>
     <row r="24" spans="1:59" s="54" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A24" s="132" t="s">
+      <c r="A24" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="71" t="s">
         <v>10</v>
       </c>
@@ -36302,12 +36312,12 @@
       <c r="BG24" s="55"/>
     </row>
     <row r="25" spans="1:59" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A25" s="133"/>
-      <c r="B25" s="147" t="s">
+      <c r="A25" s="178"/>
+      <c r="B25" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="148"/>
-      <c r="D25" s="149"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="71" t="s">
         <v>10</v>
       </c>
@@ -36373,12 +36383,12 @@
       <c r="BG25" s="55"/>
     </row>
     <row r="26" spans="1:59" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A26" s="133"/>
-      <c r="B26" s="147" t="s">
+      <c r="A26" s="178"/>
+      <c r="B26" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="149"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="71" t="s">
         <v>47</v>
       </c>
@@ -36450,12 +36460,12 @@
       <c r="BG26" s="55"/>
     </row>
     <row r="27" spans="1:59" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A27" s="133"/>
-      <c r="B27" s="147" t="s">
+      <c r="A27" s="178"/>
+      <c r="B27" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="148"/>
-      <c r="D27" s="149"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="71" t="s">
         <v>68</v>
       </c>
@@ -36521,12 +36531,12 @@
       <c r="BG27" s="55"/>
     </row>
     <row r="28" spans="1:59" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A28" s="133"/>
-      <c r="B28" s="147" t="s">
+      <c r="A28" s="178"/>
+      <c r="B28" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="148"/>
-      <c r="D28" s="149"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="134"/>
       <c r="E28" s="71" t="s">
         <v>68</v>
       </c>
@@ -36534,7 +36544,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="101" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H28" s="65"/>
       <c r="I28" s="65"/>
@@ -36593,11 +36603,11 @@
     </row>
     <row r="29" spans="1:59" s="54" customFormat="1" ht="12.75" customHeight="1">
       <c r="A29" s="72"/>
-      <c r="B29" s="142" t="s">
+      <c r="B29" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
       <c r="E29" s="71" t="s">
         <v>47</v>
       </c>
@@ -36670,11 +36680,11 @@
     </row>
     <row r="30" spans="1:59" s="54" customFormat="1" ht="12.75" customHeight="1">
       <c r="A30" s="72"/>
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="143"/>
-      <c r="D30" s="144"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="137"/>
       <c r="E30" s="71" t="s">
         <v>11</v>
       </c>
@@ -36741,11 +36751,11 @@
     </row>
     <row r="31" spans="1:59" s="54" customFormat="1" ht="12.75" customHeight="1">
       <c r="A31" s="72"/>
-      <c r="B31" s="142" t="s">
+      <c r="B31" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="143"/>
-      <c r="D31" s="144"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="137"/>
       <c r="E31" s="71" t="s">
         <v>11</v>
       </c>
@@ -36814,11 +36824,11 @@
       <c r="A32" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="147" t="s">
+      <c r="B32" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="148"/>
-      <c r="D32" s="149"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="134"/>
       <c r="E32" s="71" t="s">
         <v>11</v>
       </c>
@@ -36887,11 +36897,11 @@
       <c r="A33" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="150" t="s">
+      <c r="B33" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="152"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
       <c r="E33" s="70" t="s">
         <v>48</v>
       </c>
@@ -36958,11 +36968,11 @@
       <c r="A34" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="150" t="s">
+      <c r="B34" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="151"/>
-      <c r="D34" s="152"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="131"/>
       <c r="E34" s="70" t="s">
         <v>48</v>
       </c>
@@ -37026,10 +37036,10 @@
       <c r="AS34" s="64"/>
     </row>
     <row r="35" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A35" s="158"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="141"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="166"/>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
       <c r="G35" s="56"/>
@@ -37073,10 +37083,10 @@
       <c r="AS35" s="56"/>
     </row>
     <row r="36" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A36" s="158"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="136"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="146"/>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
       <c r="G36" s="56"/>
@@ -37120,10 +37130,10 @@
       <c r="AS36" s="56"/>
     </row>
     <row r="37" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A37" s="158"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="136"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
       <c r="G37" s="56"/>
@@ -37167,10 +37177,10 @@
       <c r="AS37" s="56"/>
     </row>
     <row r="38" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A38" s="158"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="136"/>
+      <c r="A38" s="161"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="146"/>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
       <c r="G38" s="56"/>
@@ -37214,10 +37224,10 @@
       <c r="AS38" s="56"/>
     </row>
     <row r="39" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A39" s="158"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="146"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="167"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
       <c r="G39" s="56"/>
@@ -37261,10 +37271,10 @@
       <c r="AS39" s="56"/>
     </row>
     <row r="40" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A40" s="158"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="146"/>
+      <c r="A40" s="161"/>
+      <c r="B40" s="167"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="168"/>
       <c r="E40" s="56"/>
       <c r="F40" s="56"/>
       <c r="G40" s="56"/>
@@ -37309,9 +37319,9 @@
     </row>
     <row r="41" spans="1:45" ht="12.75" customHeight="1">
       <c r="A41" s="57"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="136"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="146"/>
       <c r="E41" s="56"/>
       <c r="F41" s="56"/>
       <c r="G41" s="56"/>
@@ -37356,9 +37366,9 @@
     </row>
     <row r="42" spans="1:45" ht="12.75" customHeight="1">
       <c r="A42" s="61"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="136"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="146"/>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
       <c r="G42" s="56"/>
@@ -37403,9 +37413,9 @@
     </row>
     <row r="43" spans="1:45" ht="12.75" customHeight="1">
       <c r="A43" s="61"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="136"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="146"/>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
       <c r="G43" s="56"/>
@@ -37450,9 +37460,9 @@
     </row>
     <row r="44" spans="1:45" ht="12.75" customHeight="1">
       <c r="A44" s="61"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="138"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="180"/>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
       <c r="G44" s="56"/>
@@ -37496,10 +37506,10 @@
       <c r="AS44" s="56"/>
     </row>
     <row r="45" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A45" s="159"/>
-      <c r="B45" s="139"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="141"/>
+      <c r="A45" s="162"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="166"/>
       <c r="E45" s="56"/>
       <c r="F45" s="56"/>
       <c r="G45" s="56"/>
@@ -37543,10 +37553,10 @@
       <c r="AS45" s="56"/>
     </row>
     <row r="46" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A46" s="159"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="136"/>
+      <c r="A46" s="162"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="146"/>
       <c r="E46" s="56"/>
       <c r="F46" s="56"/>
       <c r="G46" s="56"/>
@@ -37590,10 +37600,10 @@
       <c r="AS46" s="56"/>
     </row>
     <row r="47" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A47" s="159"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="136"/>
+      <c r="A47" s="162"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
       <c r="E47" s="56"/>
       <c r="F47" s="56"/>
       <c r="G47" s="56"/>
@@ -37637,10 +37647,10 @@
       <c r="AS47" s="56"/>
     </row>
     <row r="48" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A48" s="159"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="136"/>
+      <c r="A48" s="162"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="146"/>
       <c r="E48" s="56"/>
       <c r="F48" s="56"/>
       <c r="G48" s="56"/>
@@ -37684,10 +37694,10 @@
       <c r="AS48" s="56"/>
     </row>
     <row r="49" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A49" s="159"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="146"/>
+      <c r="A49" s="162"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="56"/>
       <c r="F49" s="56"/>
       <c r="G49" s="56"/>
@@ -37731,10 +37741,10 @@
       <c r="AS49" s="56"/>
     </row>
     <row r="50" spans="1:45" ht="12.75" customHeight="1">
-      <c r="A50" s="160"/>
-      <c r="B50" s="145"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="146"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="56"/>
       <c r="F50" s="56"/>
       <c r="G50" s="56"/>
@@ -37779,9 +37789,9 @@
     </row>
     <row r="51" spans="1:45" ht="12.75" customHeight="1">
       <c r="A51" s="56"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="135"/>
-      <c r="D51" s="136"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="146"/>
       <c r="E51" s="56"/>
       <c r="F51" s="56"/>
       <c r="G51" s="56"/>
@@ -37826,9 +37836,9 @@
     </row>
     <row r="52" spans="1:45" ht="12.75" customHeight="1">
       <c r="A52" s="56"/>
-      <c r="B52" s="134"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="136"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="146"/>
       <c r="E52" s="56"/>
       <c r="F52" s="56"/>
       <c r="G52" s="56"/>
@@ -37873,9 +37883,9 @@
     </row>
     <row r="53" spans="1:45" ht="12.75" customHeight="1">
       <c r="A53" s="56"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="136"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
       <c r="E53" s="56"/>
       <c r="F53" s="56"/>
       <c r="G53" s="56"/>
@@ -37920,9 +37930,9 @@
     </row>
     <row r="54" spans="1:45" ht="12.75" customHeight="1">
       <c r="A54" s="56"/>
-      <c r="B54" s="134"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="136"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="146"/>
       <c r="E54" s="56"/>
       <c r="F54" s="56"/>
       <c r="G54" s="56"/>
@@ -37967,9 +37977,9 @@
     </row>
     <row r="55" spans="1:45" s="41" customFormat="1" ht="12.75" customHeight="1">
       <c r="A55" s="56"/>
-      <c r="B55" s="134"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="136"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="146"/>
       <c r="E55" s="56"/>
       <c r="F55" s="56"/>
       <c r="G55" s="56"/>
@@ -38014,9 +38024,9 @@
     </row>
     <row r="56" spans="1:45" ht="12.75" customHeight="1">
       <c r="A56" s="56"/>
-      <c r="B56" s="134"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="136"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="146"/>
       <c r="E56" s="56"/>
       <c r="F56" s="56"/>
       <c r="G56" s="56"/>
@@ -38061,9 +38071,9 @@
     </row>
     <row r="57" spans="1:45" ht="12.75" customHeight="1">
       <c r="A57" s="56"/>
-      <c r="B57" s="175"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="177"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="56"/>
       <c r="F57" s="56"/>
       <c r="G57" s="56"/>
@@ -38108,9 +38118,9 @@
     </row>
     <row r="58" spans="1:45" ht="12.75" customHeight="1">
       <c r="A58" s="56"/>
-      <c r="B58" s="175"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="177"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="143"/>
       <c r="E58" s="56"/>
       <c r="F58" s="56"/>
       <c r="G58" s="56"/>
@@ -38155,9 +38165,9 @@
     </row>
     <row r="59" spans="1:45" ht="12.75" customHeight="1">
       <c r="A59" s="56"/>
-      <c r="B59" s="175"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="177"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="143"/>
       <c r="E59" s="56"/>
       <c r="F59" s="56"/>
       <c r="G59" s="56"/>
@@ -38202,9 +38212,9 @@
     </row>
     <row r="60" spans="1:45" ht="12.75" customHeight="1">
       <c r="A60" s="56"/>
-      <c r="B60" s="175"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="177"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="143"/>
       <c r="E60" s="56"/>
       <c r="F60" s="56"/>
       <c r="G60" s="56"/>
@@ -38249,9 +38259,9 @@
     </row>
     <row r="61" spans="1:45" ht="12.75" customHeight="1">
       <c r="A61" s="56"/>
-      <c r="B61" s="175"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="177"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="56"/>
       <c r="F61" s="56"/>
       <c r="G61" s="56"/>
@@ -38296,9 +38306,9 @@
     </row>
     <row r="62" spans="1:45" ht="12.75" customHeight="1">
       <c r="A62" s="56"/>
-      <c r="B62" s="175"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="177"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="143"/>
       <c r="E62" s="56"/>
       <c r="F62" s="56"/>
       <c r="G62" s="56"/>
@@ -38343,9 +38353,9 @@
     </row>
     <row r="63" spans="1:45" ht="12.75" customHeight="1">
       <c r="A63" s="56"/>
-      <c r="B63" s="175"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="177"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="143"/>
       <c r="E63" s="56"/>
       <c r="F63" s="56"/>
       <c r="G63" s="56"/>
@@ -38390,9 +38400,9 @@
     </row>
     <row r="64" spans="1:45" ht="12.75" customHeight="1">
       <c r="A64" s="29"/>
-      <c r="B64" s="178"/>
-      <c r="C64" s="179"/>
-      <c r="D64" s="180"/>
+      <c r="B64" s="138"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="140"/>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
@@ -38437,9 +38447,9 @@
     </row>
     <row r="65" spans="1:45" ht="12.75" customHeight="1">
       <c r="A65" s="29"/>
-      <c r="B65" s="178"/>
-      <c r="C65" s="179"/>
-      <c r="D65" s="180"/>
+      <c r="B65" s="138"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="140"/>
       <c r="E65" s="29"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
@@ -38484,9 +38494,9 @@
     </row>
     <row r="66" spans="1:45" ht="12.75" customHeight="1">
       <c r="A66" s="29"/>
-      <c r="B66" s="178"/>
-      <c r="C66" s="179"/>
-      <c r="D66" s="180"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="140"/>
       <c r="E66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
@@ -38531,9 +38541,9 @@
     </row>
     <row r="67" spans="1:45" ht="12.75" customHeight="1">
       <c r="A67" s="29"/>
-      <c r="B67" s="178"/>
-      <c r="C67" s="179"/>
-      <c r="D67" s="180"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="139"/>
+      <c r="D67" s="140"/>
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
@@ -38578,9 +38588,9 @@
     </row>
     <row r="68" spans="1:45" ht="12.75" customHeight="1">
       <c r="A68" s="29"/>
-      <c r="B68" s="178"/>
-      <c r="C68" s="179"/>
-      <c r="D68" s="180"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="139"/>
+      <c r="D68" s="140"/>
       <c r="E68" s="29"/>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
@@ -38625,9 +38635,9 @@
     </row>
     <row r="69" spans="1:45" ht="12.75" customHeight="1">
       <c r="A69" s="29"/>
-      <c r="B69" s="178"/>
-      <c r="C69" s="179"/>
-      <c r="D69" s="180"/>
+      <c r="B69" s="138"/>
+      <c r="C69" s="139"/>
+      <c r="D69" s="140"/>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
@@ -38672,9 +38682,9 @@
     </row>
     <row r="70" spans="1:45" ht="12.75" customHeight="1">
       <c r="A70" s="29"/>
-      <c r="B70" s="178"/>
-      <c r="C70" s="179"/>
-      <c r="D70" s="180"/>
+      <c r="B70" s="138"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="140"/>
       <c r="E70" s="29"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
@@ -38719,9 +38729,9 @@
     </row>
     <row r="71" spans="1:45" ht="12.75" customHeight="1">
       <c r="A71" s="29"/>
-      <c r="B71" s="178"/>
-      <c r="C71" s="179"/>
-      <c r="D71" s="180"/>
+      <c r="B71" s="138"/>
+      <c r="C71" s="139"/>
+      <c r="D71" s="140"/>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
@@ -47673,42 +47683,22 @@
     <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:AS12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
@@ -47725,22 +47715,42 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:AS12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="F998:F1003">
     <cfRule type="cellIs" dxfId="98" priority="124" operator="equal">
@@ -48261,7 +48271,7 @@
   </sheetPr>
   <dimension ref="A1:AC998"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="U62" sqref="U62"/>
     </sheetView>
   </sheetViews>
@@ -48284,90 +48294,90 @@
       <c r="E1" s="33"/>
     </row>
     <row r="2" spans="2:23" ht="12.75" customHeight="1">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="183"/>
-      <c r="R2" s="181" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="182"/>
+      <c r="R2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="184"/>
-      <c r="T2" s="185" t="s">
+      <c r="S2" s="187"/>
+      <c r="T2" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="184"/>
-      <c r="V2" s="186" t="s">
+      <c r="U2" s="187"/>
+      <c r="V2" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="183"/>
+      <c r="W2" s="182"/>
     </row>
     <row r="3" spans="2:23" ht="12.75" customHeight="1">
-      <c r="B3" s="187" t="str">
+      <c r="B3" s="181" t="str">
         <f>Config!A6</f>
         <v xml:space="preserve">Sistema de Gestión de Productos y Control de Inventario de un Micromercado </v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="183"/>
-      <c r="R3" s="187">
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="182"/>
+      <c r="R3" s="181">
         <f>Config!A9</f>
         <v>1</v>
       </c>
-      <c r="S3" s="183"/>
-      <c r="T3" s="188">
+      <c r="S3" s="182"/>
+      <c r="T3" s="183">
         <f>Config!B9</f>
         <v>44393</v>
       </c>
-      <c r="U3" s="183"/>
-      <c r="V3" s="189">
+      <c r="U3" s="182"/>
+      <c r="V3" s="184">
         <f>Config!C9</f>
         <v>7</v>
       </c>
-      <c r="W3" s="183"/>
+      <c r="W3" s="182"/>
     </row>
     <row r="4" spans="2:23" ht="12.75" customHeight="1">
       <c r="C4" s="24"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
-      <c r="R4" s="187">
+      <c r="R4" s="181">
         <f>Config!A10</f>
         <v>2</v>
       </c>
-      <c r="S4" s="183"/>
-      <c r="T4" s="188">
+      <c r="S4" s="182"/>
+      <c r="T4" s="183">
         <f>Config!B10</f>
         <v>44414</v>
       </c>
-      <c r="U4" s="183"/>
-      <c r="V4" s="189">
+      <c r="U4" s="182"/>
+      <c r="V4" s="184">
         <f>Config!C10</f>
         <v>7</v>
       </c>
-      <c r="W4" s="183"/>
+      <c r="W4" s="182"/>
     </row>
     <row r="5" spans="2:23" ht="12.75" customHeight="1">
       <c r="C5" s="24"/>
